--- a/LISTADO_PEDIDO_COMPRAS/data/output/Pedido_Semana_14_06022026_deco_interior.xlsx
+++ b/LISTADO_PEDIDO_COMPRAS/data/output/Pedido_Semana_14_06022026_deco_interior.xlsx
@@ -8771,7 +8771,7 @@
       </c>
       <c r="I111" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J111" s="2" t="inlineStr">
@@ -10766,7 +10766,7 @@
         </is>
       </c>
       <c r="C145" s="8" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="146">
@@ -10776,7 +10776,7 @@
         </is>
       </c>
       <c r="C146" s="8" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="147">
